--- a/automation-demo2/results/ReporteContacto.xlsx
+++ b/automation-demo2/results/ReporteContacto.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,13 +561,17 @@
       <c r="A4" t="n">
         <v>0</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>independence, coit, chennai, TN, 60000</t>
+        </is>
+      </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>manda</t>
+          <t>Test 21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -580,9 +584,11 @@
           <t>user</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>paul1@osohrm.com</t>
@@ -1164,21 +1170,21 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>dhbrukkuzldhbrukkuzl</t>
+          <t>savina</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0290</t>
+          <t>0291029900</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ibuvlwtfsfibuvlwtfsf</t>
+          <t>dulvin</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1194,7 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1197,7 +1203,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0291029900</t>
+          <t>0293029900</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1212,21 +1218,21 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>bmrtahvwhibmrtahvwhi</t>
+          <t>joker</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0292</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>hbfqkhjfqbhbfqkhjfqb</t>
+          <t>selvam</t>
         </is>
       </c>
     </row>
@@ -1236,21 +1242,21 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>savina</t>
+          <t>siva</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0293029900</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>dulvin</t>
+          <t>selvi</t>
         </is>
       </c>
     </row>
@@ -1260,21 +1266,21 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DHINA</t>
+          <t>Sagar</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0294</t>
+          <t>0300</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>hgfkag</t>
         </is>
       </c>
     </row>
@@ -1284,21 +1290,21 @@
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>joker</t>
+          <t>Nalim</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>selvam</t>
+          <t>R P</t>
         </is>
       </c>
     </row>
@@ -1308,21 +1314,21 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>siva</t>
+          <t>savina</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>0303029900</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>selvi</t>
+          <t>dulvin</t>
         </is>
       </c>
     </row>
@@ -1332,21 +1338,21 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>bala</t>
+          <t>Timothy</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>0039</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ravi</t>
+          <t>Amiano</t>
         </is>
       </c>
     </row>
@@ -1356,21 +1362,21 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sagar</t>
+          <t>Rahul</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0300</t>
+          <t>0304</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>hgfkag</t>
+          <t>Das</t>
         </is>
       </c>
     </row>
@@ -1380,21 +1386,16 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Nalim</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0301</t>
+          <t>Rahul</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>R P</t>
+          <t>Das</t>
         </is>
       </c>
     </row>
@@ -1404,21 +1405,16 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>savina</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0303029900</t>
+          <t>Rahul</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>dulvin</t>
+          <t>Das</t>
         </is>
       </c>
     </row>
@@ -1428,21 +1424,21 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Timothy</t>
+          <t>Rahul</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0039</t>
+          <t>kkt</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Amiano</t>
+          <t>Das</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1448,7 @@
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1461,7 +1457,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0304</t>
+          <t>123</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1476,16 +1472,21 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rahul</t>
+          <t>sww</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0310</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Das</t>
+          <t>test</t>
         </is>
       </c>
     </row>
@@ -1495,16 +1496,21 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Rahul</t>
+          <t>yqlluQZYFR</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0311</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Das</t>
+          <t>yaTQBtZgLf</t>
         </is>
       </c>
     </row>
@@ -1514,21 +1520,21 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rahul</t>
+          <t>sww</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>kkt</t>
+          <t>0313</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Das</t>
+          <t>test</t>
         </is>
       </c>
     </row>
@@ -1538,21 +1544,21 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rahul</t>
+          <t>murugan</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>0308</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Das</t>
+          <t>thiru</t>
         </is>
       </c>
     </row>
@@ -1562,21 +1568,21 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>sww</t>
+          <t>JoyToy</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0310</t>
+          <t>0315</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>SmithSmith</t>
         </is>
       </c>
     </row>
@@ -1586,21 +1592,21 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>yqlluQZYFR</t>
+          <t>Rosanna</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0311</t>
+          <t>0315b</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>yaTQBtZgLf</t>
+          <t>Pagac</t>
         </is>
       </c>
     </row>
@@ -1610,21 +1616,21 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>sww</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0313</t>
+          <t>0317</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Smith</t>
         </is>
       </c>
     </row>
@@ -1634,21 +1640,21 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>murugan</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0308</t>
+          <t>0318</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>thiru</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -1658,21 +1664,21 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>sree</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>00392</t>
+          <t>0319</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>latha</t>
         </is>
       </c>
     </row>
@@ -1682,21 +1688,21 @@
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>JoyToy</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0315</t>
+          <t>0321</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SmithSmith</t>
+          <t>Smith</t>
         </is>
       </c>
     </row>
@@ -1706,21 +1712,21 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Rosanna</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0315b</t>
+          <t>0322</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pagac</t>
+          <t>Smith</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1736,7 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1739,7 +1745,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0317</t>
+          <t>0323</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -1754,21 +1760,21 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0318</t>
+          <t>0335</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Smith</t>
         </is>
       </c>
     </row>
@@ -1778,21 +1784,21 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>sree</t>
+          <t>hh</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0319</t>
+          <t>0315hh</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>latha</t>
+          <t>hh</t>
         </is>
       </c>
     </row>
@@ -1802,21 +1808,21 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>yedghjb1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0320</t>
+          <t>09876</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Carter</t>
+          <t>90jsnd</t>
         </is>
       </c>
     </row>
@@ -1826,21 +1832,21 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Joy</t>
+          <t>Qwerty</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0321</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>LName</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1856,7 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1859,7 +1865,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0322</t>
+          <t>0342</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -1874,21 +1880,21 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Amelia</t>
+          <t>ftyseo</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>01715</t>
+          <t>ATPValue</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>ltzbbp</t>
         </is>
       </c>
     </row>
@@ -1898,7 +1904,7 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1907,7 +1913,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0323</t>
+          <t>0359</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -1922,21 +1928,21 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09557</t>
+          <t>0361</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Evans</t>
         </is>
       </c>
     </row>
@@ -1946,21 +1952,21 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ftdkux</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>0364</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ltsxgy</t>
+          <t>Smith</t>
         </is>
       </c>
     </row>
@@ -1970,21 +1976,21 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Joy</t>
+          <t>James</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0335</t>
+          <t>0365</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Butler</t>
         </is>
       </c>
     </row>
@@ -1994,21 +2000,21 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>hh</t>
+          <t>Radha</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0315hh</t>
+          <t>0366</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>hh</t>
+          <t>Gupta</t>
         </is>
       </c>
     </row>
@@ -2018,21 +2024,21 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>yedghjb1</t>
+          <t>Mario</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09876</t>
+          <t>0367</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>90jsnd</t>
+          <t>Silva</t>
         </is>
       </c>
     </row>
@@ -2042,21 +2048,21 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Qwerty</t>
+          <t>Mario</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>0371</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>LName</t>
+          <t>Silva</t>
         </is>
       </c>
     </row>
@@ -2066,21 +2072,21 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Joy</t>
+          <t>Mario</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0342</t>
+          <t>0372</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Silva</t>
         </is>
       </c>
     </row>
@@ -2090,21 +2096,21 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ftioiu</t>
+          <t>Vinay</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>14536</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ltpugr</t>
+          <t>Mallela</t>
         </is>
       </c>
     </row>
@@ -2114,21 +2120,21 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ftndlm</t>
+          <t>Rahul</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>0375</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ltdyyf</t>
+          <t>Pune</t>
         </is>
       </c>
     </row>
@@ -2138,21 +2144,21 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ftioiu</t>
+          <t>ram</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>154.0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ltpugr</t>
+          <t>pahne</t>
         </is>
       </c>
     </row>
@@ -2162,21 +2168,21 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ftyseo</t>
+          <t>shyam</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>3540.0</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ltzbbp</t>
+          <t>sahane</t>
         </is>
       </c>
     </row>
@@ -2186,21 +2192,21 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ftyseo</t>
+          <t>sita</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>3453.0</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ltzbbp</t>
+          <t>rane</t>
         </is>
       </c>
     </row>
@@ -2210,21 +2216,21 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ftyseo</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>0378</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ltzbbp</t>
+          <t>Suarez</t>
         </is>
       </c>
     </row>
@@ -2234,21 +2240,21 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ftpjte</t>
+          <t>Kendra</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>0380</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ltpzkj</t>
+          <t>Ramos</t>
         </is>
       </c>
     </row>
@@ -2258,21 +2264,21 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>fthyfv</t>
+          <t>DACEu</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>0244</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ltrhtm</t>
+          <t>gFAt</t>
         </is>
       </c>
     </row>
@@ -2282,21 +2288,21 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>fthnvn</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>0383</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ltwrrt</t>
+          <t>Patrick</t>
         </is>
       </c>
     </row>
@@ -2306,21 +2312,21 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>fthnvn</t>
+          <t>Arina</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>0384AK</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ltwrrt</t>
+          <t>Kondakova</t>
         </is>
       </c>
     </row>
@@ -2330,21 +2336,21 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ftioiu</t>
+          <t>Gowri</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>0385</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ltpugr</t>
+          <t>mano</t>
         </is>
       </c>
     </row>
@@ -2354,21 +2360,21 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ftyseo</t>
+          <t>FIRST</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>0386</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ltzbbp</t>
+          <t>LAST</t>
         </is>
       </c>
     </row>
@@ -2378,21 +2384,21 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ftyseo</t>
+          <t>Gowri</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>0387</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ltzbbp</t>
+          <t>mano</t>
         </is>
       </c>
     </row>
@@ -2402,21 +2408,21 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ftyseo</t>
+          <t>z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>037</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ltzbbp</t>
+          <t>q</t>
         </is>
       </c>
     </row>
@@ -2426,21 +2432,21 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ftioiu</t>
+          <t>Gowri</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>0389</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ltpugr</t>
+          <t>mano</t>
         </is>
       </c>
     </row>
@@ -2450,21 +2456,21 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Joy</t>
+          <t>Vinay Kumar</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0359</t>
+          <t>145366</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Mallela</t>
         </is>
       </c>
     </row>
@@ -2474,21 +2480,21 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>aniket</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0360</t>
+          <t>0391</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>Martinez</t>
         </is>
       </c>
     </row>
@@ -2498,21 +2504,21 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>alpha</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0361</t>
+          <t>0392</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Evans</t>
+          <t>gama</t>
         </is>
       </c>
     </row>
@@ -2522,21 +2528,21 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>FName</t>
+          <t>Gowri</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>0393</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>LName</t>
+          <t>mano</t>
         </is>
       </c>
     </row>
@@ -2546,21 +2552,21 @@
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>ravi</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0363</t>
+          <t>0394</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mcmillan</t>
+          <t>Kumar</t>
         </is>
       </c>
     </row>
@@ -2570,21 +2576,21 @@
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Joy</t>
+          <t>a</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0364</t>
+          <t>03932</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>a</t>
         </is>
       </c>
     </row>
@@ -2594,21 +2600,21 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0365</t>
+          <t>0396</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Butler</t>
+          <t>Moss</t>
         </is>
       </c>
     </row>
@@ -2618,21 +2624,21 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Radha</t>
+          <t>Amit</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0366</t>
+          <t>0397</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Gupta</t>
+          <t>at00000</t>
         </is>
       </c>
     </row>
@@ -2642,21 +2648,21 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>aniket</t>
+          <t>Tarun</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>0398</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>patil</t>
+          <t>Goyal</t>
         </is>
       </c>
     </row>
@@ -2666,21 +2672,21 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Mathias</t>
+          <t>Prachi</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0369</t>
+          <t>0399</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Sanchez</t>
+          <t>Goyal</t>
         </is>
       </c>
     </row>
@@ -2690,21 +2696,21 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0371</t>
+          <t>0400</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Wells</t>
+          <t>Banks</t>
         </is>
       </c>
     </row>
@@ -2714,21 +2720,21 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Vinay</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0372</t>
+          <t>709515</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Baldwin</t>
+          <t>Reddy</t>
         </is>
       </c>
     </row>
@@ -2738,21 +2744,21 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Evelyn</t>
+          <t>Gopal</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0373</t>
+          <t>0401</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>sdfgdfg</t>
         </is>
       </c>
     </row>
@@ -2762,21 +2768,21 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Gowri</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0374</t>
+          <t>0403</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>mano</t>
         </is>
       </c>
     </row>
@@ -2786,21 +2792,21 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>aniket</t>
+          <t>Renita</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>789125</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>patil</t>
+          <t>Hancy</t>
         </is>
       </c>
     </row>
@@ -2810,21 +2816,21 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>dcawcac</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0376</t>
+          <t>0405</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Camacho</t>
+          <t>cawccac</t>
         </is>
       </c>
     </row>
@@ -2834,21 +2840,21 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>eniko</t>
+          <t>Delma</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0377</t>
+          <t>0406</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>kallay</t>
+          <t>Luettgen</t>
         </is>
       </c>
     </row>
@@ -2858,21 +2864,21 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>anabel</t>
+          <t>Mao</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>03767</t>
+          <t>0407</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>contreras</t>
+          <t>Jenkins</t>
         </is>
       </c>
     </row>
@@ -2882,21 +2888,21 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Renita</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0379</t>
+          <t>789157</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Freeman</t>
+          <t>Hacker</t>
         </is>
       </c>
     </row>
@@ -2906,21 +2912,21 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>niBIDil</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0381</t>
+          <t>99439</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Dunn</t>
+          <t>jFEa</t>
         </is>
       </c>
     </row>
@@ -2930,21 +2936,21 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Hannah</t>
+          <t>Stephenie</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0383</t>
+          <t>0410</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bennett</t>
+          <t>Cruickshank</t>
         </is>
       </c>
     </row>
@@ -2954,21 +2960,21 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>gg</t>
+          <t>Thora</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0385</t>
+          <t>0411</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>hh</t>
+          <t>Lubowitz</t>
         </is>
       </c>
     </row>
@@ -2978,21 +2984,21 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>rr</t>
+          <t>Terry</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0386</t>
+          <t>0412</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>yy</t>
+          <t>Cole</t>
         </is>
       </c>
     </row>
@@ -3002,21 +3008,21 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>pedro</t>
+          <t>Eusebio</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>03877l*</t>
+          <t>0413</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>juarez</t>
+          <t>Koelpin</t>
         </is>
       </c>
     </row>
@@ -3026,21 +3032,21 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>laura</t>
+          <t>Jerrica</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0389</t>
+          <t>0414</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Bogan</t>
         </is>
       </c>
     </row>
@@ -3050,16 +3056,21 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>laura3</t>
+          <t>doce</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>041548</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>catatorce</t>
         </is>
       </c>
     </row>
@@ -3069,21 +3080,141 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Balaji</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0391</t>
+          <t>0416</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Suarez</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>214</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>RTYY</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>041758</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>RTYY</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>215</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0418</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Prohaska</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>216</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>niDHAil</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>96549</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>jJCa</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>217</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Gaston</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0420</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Will</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="n">
+        <v>218</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Jason</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0421</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Jenkins</t>
         </is>
       </c>
     </row>
